--- a/data/trans_dic/P39A3_2023-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P39A3_2023-Provincia-trans_dic.xlsx
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>90,29; 97,78</t>
+          <t>91,22; 97,82</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>96,68; 99,01</t>
+          <t>96,58; 99,02</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>94,71; 98,06</t>
+          <t>94,87; 98,04</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>95,63; 98,92</t>
+          <t>95,3; 98,87</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>94,22; 97,46</t>
+          <t>94,54; 97,45</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>95,57; 97,84</t>
+          <t>95,65; 97,94</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>91,7; 96,53</t>
+          <t>91,67; 96,4</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>95,13; 98,43</t>
+          <t>95,18; 98,33</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>94,14; 96,99</t>
+          <t>94,22; 97,06</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>94,97; 99,2</t>
+          <t>94,94; 99,17</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>79,74; 97,3</t>
+          <t>77,17; 97,3</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>86,12; 97,64</t>
+          <t>85,89; 97,69</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>58,02; 69,66</t>
+          <t>58,28; 70,08</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>53,51; 63,36</t>
+          <t>53,68; 63,4</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>57,28; 65,01</t>
+          <t>57,17; 64,56</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>86,08; 94,08</t>
+          <t>86,54; 93,9</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>90,78; 95,92</t>
+          <t>90,36; 95,81</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>89,2; 94,18</t>
+          <t>89,73; 94,21</t>
         </is>
       </c>
     </row>
@@ -879,17 +879,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>77,67; 84,76</t>
+          <t>77,6; 84,5</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>77,75; 89,85</t>
+          <t>77,95; 89,02</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>78,94; 86,26</t>
+          <t>78,99; 86,04</t>
         </is>
       </c>
     </row>
@@ -929,17 +929,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>96,17; 98,92</t>
+          <t>96,43; 99,01</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>96,77; 98,72</t>
+          <t>96,89; 98,69</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>97,01; 98,65</t>
+          <t>97,12; 98,58</t>
         </is>
       </c>
     </row>
@@ -979,12 +979,12 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>90,45; 92,55</t>
+          <t>90,27; 92,45</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>89,35; 91,78</t>
+          <t>89,24; 91,8</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">

--- a/data/trans_dic/P39A3_2023-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P39A3_2023-Provincia-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>91,22; 97,82</t>
+          <t>90,29; 97,78</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>96,58; 99,02</t>
+          <t>96,68; 99,01</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>94,87; 98,04</t>
+          <t>94,71; 98,06</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>95,3; 98,87</t>
+          <t>95,63; 98,92</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>94,54; 97,45</t>
+          <t>94,22; 97,46</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>95,65; 97,94</t>
+          <t>95,57; 97,84</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>91,67; 96,4</t>
+          <t>91,7; 96,53</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>95,18; 98,33</t>
+          <t>95,13; 98,43</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>94,22; 97,06</t>
+          <t>94,14; 96,99</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>94,94; 99,17</t>
+          <t>94,97; 99,2</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>77,17; 97,3</t>
+          <t>79,74; 97,3</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>85,89; 97,69</t>
+          <t>86,12; 97,64</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>58,28; 70,08</t>
+          <t>58,02; 69,66</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>53,68; 63,4</t>
+          <t>53,51; 63,36</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>57,17; 64,56</t>
+          <t>57,28; 65,01</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>86,54; 93,9</t>
+          <t>86,08; 94,08</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>90,36; 95,81</t>
+          <t>90,78; 95,92</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>89,73; 94,21</t>
+          <t>89,2; 94,18</t>
         </is>
       </c>
     </row>
@@ -879,17 +879,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>77,6; 84,5</t>
+          <t>77,67; 84,76</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>77,95; 89,02</t>
+          <t>77,75; 89,85</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>78,99; 86,04</t>
+          <t>78,94; 86,26</t>
         </is>
       </c>
     </row>
@@ -929,17 +929,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>96,43; 99,01</t>
+          <t>96,17; 98,92</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>96,89; 98,69</t>
+          <t>96,77; 98,72</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>97,12; 98,58</t>
+          <t>97,01; 98,65</t>
         </is>
       </c>
     </row>
@@ -979,12 +979,12 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>90,27; 92,45</t>
+          <t>90,45; 92,55</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>89,24; 91,8</t>
+          <t>89,35; 91,78</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">

--- a/data/trans_dic/P39A3_2023-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P39A3_2023-Provincia-trans_dic.xlsx
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>95,48%</t>
+          <t>95,35%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>98,07%</t>
+          <t>98,11%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>96,8%</t>
+          <t>96,67%</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>90,29; 97,78</t>
+          <t>88,42; 97,72</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>96,68; 99,01</t>
+          <t>96,73; 99,04</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>94,71; 98,06</t>
+          <t>94,13; 98,05</t>
         </is>
       </c>
     </row>
@@ -611,7 +611,7 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>96,22%</t>
+          <t>96,16%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>95,63; 98,92</t>
+          <t>95,56; 98,93</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>94,22; 97,46</t>
+          <t>94,17; 97,45</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>95,57; 97,84</t>
+          <t>95,48; 97,85</t>
         </is>
       </c>
     </row>
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>94,34%</t>
+          <t>94,42%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>97,08%</t>
+          <t>97,05%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>95,79%</t>
+          <t>95,78%</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>91,7; 96,53</t>
+          <t>91,78; 96,59</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>95,13; 98,43</t>
+          <t>95,06; 98,4</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>94,14; 96,99</t>
+          <t>94,14; 96,98</t>
         </is>
       </c>
     </row>
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>97,85%</t>
+          <t>97,86%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>92,54%</t>
+          <t>78,96%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>94,8%</t>
+          <t>86,46%</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>94,97; 99,2</t>
+          <t>95,01; 99,21</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>79,74; 97,3</t>
+          <t>47,29; 97,27</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>86,12; 97,64</t>
+          <t>59,92; 97,63</t>
         </is>
       </c>
     </row>
@@ -756,17 +756,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>63,78%</t>
+          <t>63,66%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>58,52%</t>
+          <t>58,23%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>60,92%</t>
+          <t>60,73%</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>58,02; 69,66</t>
+          <t>57,9; 69,61</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>53,51; 63,36</t>
+          <t>53,2; 62,78</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>57,28; 65,01</t>
+          <t>57,08; 64,72</t>
         </is>
       </c>
     </row>
@@ -806,17 +806,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>90,63%</t>
+          <t>90,78%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>93,7%</t>
+          <t>93,68%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>92,14%</t>
+          <t>92,18%</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>86,08; 94,08</t>
+          <t>86,45; 94,17</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>90,78; 95,92</t>
+          <t>90,76; 95,87</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>89,2; 94,18</t>
+          <t>89,24; 94,23</t>
         </is>
       </c>
     </row>
@@ -856,17 +856,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>81,45%</t>
+          <t>81,52%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>81,88%</t>
+          <t>84,06%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>81,69%</t>
+          <t>82,99%</t>
         </is>
       </c>
     </row>
@@ -879,17 +879,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>77,67; 84,76</t>
+          <t>77,66; 85,01</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>77,75; 89,85</t>
+          <t>77,88; 93,25</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>78,94; 86,26</t>
+          <t>79,21; 90,34</t>
         </is>
       </c>
     </row>
@@ -906,17 +906,17 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>97,99%</t>
+          <t>98,43%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>97,93%</t>
+          <t>97,9%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>97,96%</t>
+          <t>98,2%</t>
         </is>
       </c>
     </row>
@@ -929,17 +929,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>96,17; 98,92</t>
+          <t>96,97; 99,49</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>96,77; 98,72</t>
+          <t>96,72; 98,69</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>97,01; 98,65</t>
+          <t>97,34; 99,04</t>
         </is>
       </c>
     </row>
@@ -956,17 +956,17 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>91,54%</t>
+          <t>92,03%</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>90,72%</t>
+          <t>89,44%</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>91,11%</t>
+          <t>90,71%</t>
         </is>
       </c>
     </row>
@@ -979,17 +979,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>90,45; 92,55</t>
+          <t>90,8; 93,68</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>89,35; 91,78</t>
+          <t>83,01; 91,71</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>90,16; 91,83</t>
+          <t>87,54; 92,07</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P39A3_2023-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P39A3_2023-Provincia-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -546,7 +547,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -579,24 +580,24 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>88,42; 97,72</t>
+          <t>89,63; 97,72</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>96,73; 99,04</t>
+          <t>96,68; 99,01</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>94,13; 98,05</t>
+          <t>94,0; 98,01</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -629,24 +630,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>95,56; 98,93</t>
+          <t>95,31; 98,89</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>94,17; 97,45</t>
+          <t>94,35; 97,42</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>95,48; 97,85</t>
+          <t>95,5; 97,86</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -679,17 +680,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>91,78; 96,59</t>
+          <t>91,58; 96,33</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>95,06; 98,4</t>
+          <t>95,06; 98,37</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>94,14; 96,98</t>
+          <t>94,31; 96,94</t>
         </is>
       </c>
     </row>
@@ -729,17 +730,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>95,01; 99,21</t>
+          <t>94,9; 99,15</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>47,29; 97,27</t>
+          <t>42,55; 97,43</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>59,92; 97,63</t>
+          <t>59,69; 97,7</t>
         </is>
       </c>
     </row>
@@ -779,24 +780,24 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>57,9; 69,61</t>
+          <t>57,48; 69,59</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>53,2; 62,78</t>
+          <t>53,32; 63,03</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>57,08; 64,72</t>
+          <t>56,77; 64,33</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -829,24 +830,24 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>86,45; 94,17</t>
+          <t>85,78; 93,84</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>90,76; 95,87</t>
+          <t>90,73; 95,85</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>89,24; 94,23</t>
+          <t>89,66; 94,28</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -879,17 +880,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>77,66; 85,01</t>
+          <t>77,64; 84,87</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>77,88; 93,25</t>
+          <t>77,78; 92,43</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>79,21; 90,34</t>
+          <t>79,25; 88,88</t>
         </is>
       </c>
     </row>
@@ -929,17 +930,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>96,97; 99,49</t>
+          <t>97,01; 99,52</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>96,72; 98,69</t>
+          <t>96,76; 98,73</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>97,34; 99,04</t>
+          <t>97,34; 99,02</t>
         </is>
       </c>
     </row>
@@ -979,17 +980,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>90,8; 93,68</t>
+          <t>90,76; 93,69</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>83,01; 91,71</t>
+          <t>82,69; 91,78</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>87,54; 92,07</t>
+          <t>87,25; 92,12</t>
         </is>
       </c>
     </row>
@@ -1015,4 +1016,758 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que sí diría que estar con dolor o malestar en el pecho es un síntoma de que a alguien le está dando un ataque al corazón</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>319</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>524</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>843</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>296267</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>278490</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>574757</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>278483; 303640</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>274418; 281035</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>558920; 582758</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>363</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>664</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>1027</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>499427</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>480170</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>979597</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>487225; 505521</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>471116; 486454</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>965009; 988857</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>313</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>475</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>788</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>281281</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>310776</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>592058</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>272829; 286985</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>304398; 314999</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>582976; 599237</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>231</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>475</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>706</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>243994</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>299132</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>543127</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>236611; 247196</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>161210; 369090</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>374945; 613728</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Huelva</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>172</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>281</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>453</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>111796</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>120427</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>232224</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>100942; 122199</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>110268; 130347</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>217093; 246016</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Jaén</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>302</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>363</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>665</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>225303</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>215009</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>440313</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>212900; 232884</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>208218; 219983</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>428273; 450373</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Málaga</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>453</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>703</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>1156</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>491548</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>692788</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>1184336</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>468139; 511729</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>641063; 761745</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>1131008; 1268379</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>680</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>967</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>1647</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>850757</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>653569</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>1504326</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>838446; 860153</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>645973; 659132</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>1491142; 1516839</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>2833</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>4452</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>7285</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>3000375</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>3050363</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>6050738</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>2958826; 3054492</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>2820047; 3129949</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>5820202; 6145157</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>